--- a/TextRadioDiagram.xlsx
+++ b/TextRadioDiagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayMetz100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayMetz100\Documents\GitHub\TextWalkieTalkie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -639,8 +639,27 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>-Input Interface</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-2.5" LCD</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1098,6 +1117,17 @@
               </a:solidFill>
             </a:rPr>
             <a:t>-2.5 inches wide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Keyboard output interface</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1661,7 +1691,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TextRadioDiagram.xlsx
+++ b/TextRadioDiagram.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayMetz100\Documents\GitHub\TextWalkieTalkie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayM\Documents\GitHub\TextWalkieTalkie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tech Design" sheetId="1" r:id="rId1"/>
+    <sheet name="Laptop Dev Design" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1403,6 +1408,720 @@
         </a:prstGeom>
         <a:ln>
           <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="190500"/>
+          <a:ext cx="2003425" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transmitter Board</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Serial input of text messages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Digital to Analog converter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Radio circuit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Antenna</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2286000"/>
+          <a:ext cx="2003425" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reciever Board</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Antenna</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Radio circuit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-A/D converter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Serial output of text messages</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>392113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>392113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7707313" y="1714499"/>
+          <a:ext cx="0" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="942975" y="695325"/>
+          <a:ext cx="2686050" cy="2371725"/>
+          <a:chOff x="1533525" y="238125"/>
+          <a:chExt cx="914400" cy="733425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Flowchart: Manual Operation 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1533525" y="666750"/>
+            <a:ext cx="914400" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualOperation">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Flowchart: Manual Operation 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1638301" y="609600"/>
+            <a:ext cx="714374" cy="247649"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualOperation">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Flowchart: Predefined Process 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1647825" y="238125"/>
+            <a:ext cx="704850" cy="450723"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2314575" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190624" y="133350"/>
+          <a:ext cx="2314575" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Visual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Studio Development Laptop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Windows 8.1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1828801" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324224" y="3124200"/>
+          <a:ext cx="1828801" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>USB to Serial cable (receive)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1895476" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="923925"/>
+          <a:ext cx="1895476" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>USB to Serial cable (transmit)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5257801" y="952500"/>
+          <a:ext cx="1447799" cy="103705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5153025" y="3048000"/>
+          <a:ext cx="1552575" cy="208480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1690,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1702,4 +2421,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>